--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11340" windowHeight="3675"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11280" windowHeight="4515"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -22,27 +22,15 @@
     <t>TestCase</t>
   </si>
   <si>
-    <t>AboutUs</t>
-  </si>
-  <si>
     <t>Testcase description</t>
   </si>
   <si>
-    <t>Launch site and open About Us</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
-    <t>Go to https://mohs10.io/ and click on About Us</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>About Us should be displayed</t>
-  </si>
-  <si>
     <t>Actual Result</t>
   </si>
   <si>
@@ -53,6 +41,18 @@
   </si>
   <si>
     <t>Test Case No</t>
+  </si>
+  <si>
+    <t>ContactUs</t>
+  </si>
+  <si>
+    <t>Launch site and open Contact Us</t>
+  </si>
+  <si>
+    <t>Go to http://demowebshop.tricentis.com/ and click on Contact Us</t>
+  </si>
+  <si>
+    <t>Contact Us should be displayed</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -439,48 +439,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
